--- a/data/trans_orig/P32E$amigos_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P32E$amigos_2023-Clase-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>6111</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2335</v>
+        <v>2406</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12015</v>
+        <v>11664</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2990378263458833</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1142540832810603</v>
+        <v>0.1177420437896153</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5879508714140558</v>
+        <v>0.5708051665368955</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -765,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2635506132543973</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -783,19 +783,19 @@
         <v>7818</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3093</v>
+        <v>3314</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>13870</v>
+        <v>14447</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.2904959216764637</v>
+        <v>0.2904959216764635</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1149448153310929</v>
+        <v>0.1231279452984752</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.515367926835935</v>
+        <v>0.5368215884506565</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>14314</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>9481</v>
+        <v>9331</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17856</v>
+        <v>17839</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7004865912693042</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4639361651948166</v>
+        <v>0.4566171146481603</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8737889288429919</v>
+        <v>0.8729629160332443</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -833,7 +833,7 @@
         <v>5220</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2635</v>
+        <v>2734</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>6478</v>
@@ -842,7 +842,7 @@
         <v>0.805775426159182</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4067534375300901</v>
+        <v>0.4219779525654006</v>
       </c>
       <c r="P5" s="6" t="n">
         <v>1</v>
@@ -854,19 +854,19 @@
         <v>19534</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14080</v>
+        <v>14100</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>23388</v>
+        <v>23533</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7258300068839665</v>
+        <v>0.7258300068839663</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5232004158532468</v>
+        <v>0.5239248544080465</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8690451354312937</v>
+        <v>0.8744533284220537</v>
       </c>
     </row>
     <row r="6">
@@ -886,16 +886,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5813</v>
+        <v>7036</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.0641230280148571</v>
+        <v>0.06412302801485709</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2844465566266116</v>
+        <v>0.3443185229713274</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2635506132543973</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -928,16 +928,16 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>9277</v>
+        <v>8771</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.1121259922706618</v>
+        <v>0.1121259922706617</v>
       </c>
       <c r="V6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3447238243074364</v>
+        <v>0.3259272336449094</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>13309</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>8834</v>
+        <v>7846</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>17377</v>
+        <v>17125</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.6512806464813766</v>
+        <v>0.6512806464813765</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4322756014079074</v>
+        <v>0.3839341416891279</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8503768945368481</v>
+        <v>0.8380340069476651</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>3</v>
@@ -975,19 +975,19 @@
         <v>2965</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5783</v>
+        <v>5606</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4577751870952153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.0959022227576441</v>
+        <v>0.1019561994364735</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8926374748773762</v>
+        <v>0.8654146276076081</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -996,19 +996,19 @@
         <v>16274</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>11010</v>
+        <v>10890</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>21207</v>
+        <v>21233</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.6047031600265326</v>
+        <v>0.6047031600265323</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4091097877977345</v>
+        <v>0.4046584018934609</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.7880028457860168</v>
+        <v>0.7889946760647178</v>
       </c>
     </row>
     <row r="8">
@@ -1028,16 +1028,16 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5719</v>
+        <v>6343</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.09967834551221644</v>
+        <v>0.09967834551221642</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2798745866780352</v>
+        <v>0.3103749722125728</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1</v>
@@ -1049,7 +1049,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5028</v>
+        <v>4976</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2635506132543973</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7762375652125904</v>
+        <v>0.7680612715326324</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>3</v>
@@ -1067,19 +1067,19 @@
         <v>3744</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>889</v>
+        <v>881</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9589</v>
+        <v>9061</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1391230121138652</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03304497646336357</v>
+        <v>0.03275143086359715</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3563043055049079</v>
+        <v>0.3366781369708709</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>4186</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1073</v>
+        <v>1051</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8729</v>
+        <v>7793</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2730498896660536</v>
+        <v>0.2730498896660535</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.06999826194105367</v>
+        <v>0.06858989519560654</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5694555816171397</v>
+        <v>0.5083628199514054</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1121,19 +1121,19 @@
         <v>4969</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1671</v>
+        <v>1839</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>9195</v>
+        <v>8828</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3714381730551383</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1249180398772288</v>
+        <v>0.1374655364970589</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6873683634885899</v>
+        <v>0.6599483859399555</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1142,19 +1142,19 @@
         <v>9154</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4113</v>
+        <v>4623</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14435</v>
+        <v>14580</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3188990607954949</v>
+        <v>0.318899060795495</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1432730089029241</v>
+        <v>0.1610471545037418</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5028607800212855</v>
+        <v>0.5079170155829745</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>7557</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3811</v>
+        <v>3672</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11202</v>
+        <v>11043</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4929675981362386</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2485997709335591</v>
+        <v>0.2395348141544167</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7308012498348562</v>
+        <v>0.7204130265164188</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>9</v>
@@ -1192,19 +1192,19 @@
         <v>9839</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6640</v>
+        <v>6486</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>12138</v>
+        <v>12114</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.735515853075294</v>
+        <v>0.7355158530752939</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4963681109522555</v>
+        <v>0.4848834991663915</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9073966116224172</v>
+        <v>0.9056060365520926</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1213,19 +1213,19 @@
         <v>17396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>11814</v>
+        <v>11940</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>21784</v>
+        <v>21708</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.6059956545753437</v>
+        <v>0.6059956545753438</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.411543819554224</v>
+        <v>0.415951978625235</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7588700938409854</v>
+        <v>0.7562148419792756</v>
       </c>
     </row>
     <row r="11">
@@ -1245,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6147</v>
+        <v>6408</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1416819074742572</v>
@@ -1254,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4010114123142086</v>
+        <v>0.4180086913889617</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1266,16 +1266,16 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6235</v>
+        <v>5678</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1467437900632904</v>
+        <v>0.1467437900632903</v>
       </c>
       <c r="O11" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4660750703327209</v>
+        <v>0.4244386246149324</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>4</v>
@@ -1284,19 +1284,19 @@
         <v>4135</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1114</v>
+        <v>1269</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>9161</v>
+        <v>9732</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1440407566488477</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03882056994746635</v>
+        <v>0.04421012097460424</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3191351414581083</v>
+        <v>0.3390083580812177</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>7934</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4389</v>
+        <v>4259</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11992</v>
+        <v>11749</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5175853216262811</v>
+        <v>0.517585321626281</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2863090804098926</v>
+        <v>0.2778424198456412</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7822771741127647</v>
+        <v>0.7664757347896516</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1334,19 +1334,19 @@
         <v>7087</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3499</v>
+        <v>3332</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10660</v>
+        <v>10579</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.5298272339652635</v>
+        <v>0.5298272339652634</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2615874717497993</v>
+        <v>0.2490530142828213</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.7968676017178503</v>
+        <v>0.790805343217924</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>16</v>
@@ -1355,19 +1355,19 @@
         <v>15022</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>9458</v>
+        <v>9282</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20649</v>
+        <v>20071</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5232900815270305</v>
+        <v>0.5232900815270306</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3294780281702446</v>
+        <v>0.3233308766779998</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7193357665659662</v>
+        <v>0.6991930706033578</v>
       </c>
     </row>
     <row r="13">
@@ -1387,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>4659</v>
+        <v>4882</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.06888076570116067</v>
@@ -1396,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3039556299375651</v>
+        <v>0.3184697472015254</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1408,7 +1408,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7128</v>
+        <v>6649</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1803894457144556</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5328216524706075</v>
+        <v>0.4970273845516118</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1426,19 +1426,19 @@
         <v>3469</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>984</v>
+        <v>1057</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8486</v>
+        <v>8691</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1208440724714349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.03428061485349972</v>
+        <v>0.03683392754468343</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2956327367905289</v>
+        <v>0.302747945680923</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>3347</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>822</v>
+        <v>835</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8947</v>
+        <v>8971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1046936650970143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02571668113521711</v>
+        <v>0.02610947483459497</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2798719417377458</v>
+        <v>0.280635902359939</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -1493,19 +1493,19 @@
         <v>3347</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>882</v>
+        <v>844</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>8704</v>
+        <v>8705</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09423686411978395</v>
+        <v>0.09423686411978396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02483615937743063</v>
+        <v>0.0237565445233291</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2450929416775544</v>
+        <v>0.2451127385534133</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>25490</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>19922</v>
+        <v>20298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>29294</v>
+        <v>29329</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.797371478779251</v>
+        <v>0.7973714787792509</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6231979256934805</v>
+        <v>0.6349675582126435</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9163968453053833</v>
+        <v>0.9174714465931498</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -1543,16 +1543,16 @@
         <v>2005</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>550</v>
+        <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
         <v>3547</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.565255248460115</v>
+        <v>0.5652552484601149</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.155162762929645</v>
+        <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
         <v>1</v>
@@ -1564,19 +1564,19 @@
         <v>27495</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>21628</v>
+        <v>21569</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>31672</v>
+        <v>31840</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.7741877147780286</v>
+        <v>0.7741877147780288</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.6089978396518664</v>
+        <v>0.6073343195403041</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8918156089577597</v>
+        <v>0.8965457424655058</v>
       </c>
     </row>
     <row r="16">
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6439</v>
+        <v>6603</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03845405015884363</v>
@@ -1605,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2014204769037389</v>
+        <v>0.2065692246408023</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1630,16 +1630,16 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>5462</v>
+        <v>6248</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03461326047107361</v>
+        <v>0.03461326047107362</v>
       </c>
       <c r="V16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1537948859381641</v>
+        <v>0.1759281552349639</v>
       </c>
     </row>
     <row r="17">
@@ -1656,19 +1656,19 @@
         <v>11397</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6556</v>
+        <v>6236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>18159</v>
+        <v>18291</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3565120169694856</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2050982447479494</v>
+        <v>0.1950627345167334</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5680461805152108</v>
+        <v>0.5721762990990472</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -1680,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3007</v>
+        <v>3069</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.434744751539885</v>
@@ -1689,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8477572656358082</v>
+        <v>0.8652919518694443</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>14</v>
@@ -1698,19 +1698,19 @@
         <v>12939</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>7441</v>
+        <v>7431</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>19688</v>
+        <v>19711</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.3643259007851786</v>
+        <v>0.3643259007851787</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2095154991281075</v>
+        <v>0.2092548017203958</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.5543852795684112</v>
+        <v>0.5550199339815977</v>
       </c>
     </row>
     <row r="18">
@@ -1778,19 +1778,19 @@
         <v>7456</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2748</v>
+        <v>2581</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14682</v>
+        <v>14138</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1783247450419942</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.06571975203366555</v>
+        <v>0.06172891904349648</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3511259941848293</v>
+        <v>0.3381322971821821</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1799,19 +1799,19 @@
         <v>3598</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>752</v>
+        <v>678</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8796</v>
+        <v>8440</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2424256112004071</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05067197102109194</v>
+        <v>0.04569087901768716</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5927154820033074</v>
+        <v>0.5687136622940243</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>8</v>
@@ -1820,19 +1820,19 @@
         <v>11054</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4416</v>
+        <v>5205</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>19465</v>
+        <v>20307</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1951159823617975</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.07794267569340659</v>
+        <v>0.0918697131903765</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3435786974226385</v>
+        <v>0.3584373194193923</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>28955</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>22992</v>
+        <v>22587</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>34878</v>
+        <v>34553</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6924858500724702</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5498886527376059</v>
+        <v>0.5401911347635948</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.834131041536376</v>
+        <v>0.82637449156743</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>14</v>
@@ -1870,19 +1870,19 @@
         <v>11844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>7929</v>
+        <v>8217</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14104</v>
+        <v>14100</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7981368027343595</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5343314831445811</v>
+        <v>0.5536788247374419</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9503730077643917</v>
+        <v>0.950132780431354</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>44</v>
@@ -1891,19 +1891,19 @@
         <v>40799</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>33457</v>
+        <v>32829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>47171</v>
+        <v>46904</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7201611425533074</v>
+        <v>0.7201611425533073</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5905582468615662</v>
+        <v>0.5794723111912351</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8326384968158371</v>
+        <v>0.8279143170417659</v>
       </c>
     </row>
     <row r="21">
@@ -1923,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7716</v>
+        <v>8950</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.0617410340364048</v>
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1845411489301101</v>
+        <v>0.2140364909030124</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1957,7 +1957,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>8182</v>
+        <v>7913</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0455679553089926</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1444308170078724</v>
+        <v>0.1396826729333413</v>
       </c>
     </row>
     <row r="22">
@@ -1983,19 +1983,19 @@
         <v>22780</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16734</v>
+        <v>15998</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28885</v>
+        <v>28405</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.5448185132561668</v>
+        <v>0.5448185132561667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4002176986598766</v>
+        <v>0.3826019101468987</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.690813367482858</v>
+        <v>0.6793247988057881</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>6</v>
@@ -2004,19 +2004,19 @@
         <v>3873</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1337</v>
+        <v>1248</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7660</v>
+        <v>7302</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.2609940748463672</v>
+        <v>0.2609940748463671</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.09012519121662138</v>
+        <v>0.08412861945848427</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5162054920314679</v>
+        <v>0.4920629961388404</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>30</v>
@@ -2025,19 +2025,19 @@
         <v>26654</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>19121</v>
+        <v>19538</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>34350</v>
+        <v>34410</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4704706332958372</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3375059962922293</v>
+        <v>0.3448725648665831</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6063215451175143</v>
+        <v>0.6073900612228142</v>
       </c>
     </row>
     <row r="23">
@@ -2070,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>4648</v>
+        <v>4911</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.06357922405398203</v>
+        <v>0.06357922405398202</v>
       </c>
       <c r="O23" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3132403903630412</v>
+        <v>0.3309324949688171</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1</v>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5035</v>
+        <v>4500</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01665459304498404</v>
@@ -2100,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08888192426715461</v>
+        <v>0.07943061807181759</v>
       </c>
     </row>
     <row r="24">
@@ -2121,19 +2121,19 @@
         <v>15556</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8183</v>
+        <v>8890</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>25489</v>
+        <v>26402</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3697617682639348</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1945034962317378</v>
+        <v>0.2113167605285735</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6058587430026471</v>
+        <v>0.6275499630775448</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>4</v>
@@ -2142,19 +2142,19 @@
         <v>3515</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1142</v>
+        <v>1177</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>6191</v>
+        <v>5776</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4160736762910412</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1351243544630146</v>
+        <v>0.1393663480185497</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7328667234468862</v>
+        <v>0.6837382699724692</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -2163,19 +2163,19 @@
         <v>19071</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>11305</v>
+        <v>10990</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>29026</v>
+        <v>28594</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.3775058396921927</v>
+        <v>0.3775058396921928</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2237866084090426</v>
+        <v>0.2175329588162463</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5745635816051865</v>
+        <v>0.566011297998432</v>
       </c>
     </row>
     <row r="25">
@@ -2192,19 +2192,19 @@
         <v>23457</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>14652</v>
+        <v>15079</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>30839</v>
+        <v>31069</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.5575463940450793</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.348265451228465</v>
+        <v>0.3584173493843819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.7330137993738181</v>
+        <v>0.7384927464993273</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>7</v>
@@ -2213,19 +2213,19 @@
         <v>5118</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2683</v>
+        <v>2580</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7196</v>
+        <v>7183</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.6057864058376221</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3175429245338164</v>
+        <v>0.3054022867132692</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8518269271970889</v>
+        <v>0.8502705199628252</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>24</v>
@@ -2234,19 +2234,19 @@
         <v>28574</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>20184</v>
+        <v>19047</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>36966</v>
+        <v>36616</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.5656128744155879</v>
+        <v>0.5656128744155881</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3995256588279907</v>
+        <v>0.3770190646320832</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.7317192906418148</v>
+        <v>0.7247871677043473</v>
       </c>
     </row>
     <row r="26">
@@ -2263,19 +2263,19 @@
         <v>16343</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9455</v>
+        <v>8844</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>25119</v>
+        <v>24442</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3884562203009024</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2247392086142722</v>
+        <v>0.2102261164421376</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.5970614970945238</v>
+        <v>0.5809722774926562</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>4</v>
@@ -2284,19 +2284,19 @@
         <v>2969</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>5745</v>
+        <v>5592</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3514837896230251</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1087869756389462</v>
+        <v>0.1086284153274859</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6800269688140288</v>
+        <v>0.6619370092403221</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>17</v>
@@ -2305,19 +2305,19 @@
         <v>19312</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11538</v>
+        <v>11749</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27501</v>
+        <v>29008</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.3822738547659255</v>
+        <v>0.3822738547659256</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2283890613529275</v>
+        <v>0.2325708170802097</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.54437910782298</v>
+        <v>0.5742047959791802</v>
       </c>
     </row>
     <row r="27">
@@ -2334,19 +2334,19 @@
         <v>29864</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>19102</v>
+        <v>20851</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>36279</v>
+        <v>36342</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.7098574592716241</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4540485747957927</v>
+        <v>0.4956096595484553</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8623386283444295</v>
+        <v>0.8638285309051219</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2355,19 +2355,19 @@
         <v>4142</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1927</v>
+        <v>1711</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>6626</v>
+        <v>6458</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.490336447545247</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2280617907678697</v>
+        <v>0.2025043309643824</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.784326319577286</v>
+        <v>0.7643853212161948</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>31</v>
@@ -2376,19 +2376,19 @@
         <v>34007</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>24247</v>
+        <v>24530</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>41187</v>
+        <v>41630</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.673150131345996</v>
+        <v>0.6731501313459961</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4799513184339151</v>
+        <v>0.4855520816094209</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.8152794370321895</v>
+        <v>0.8240472507175574</v>
       </c>
     </row>
     <row r="28">
@@ -2462,13 +2462,13 @@
         <v>5464</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.2451398211673516</v>
+        <v>0.2451398211673517</v>
       </c>
       <c r="H29" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.898139340378868</v>
+        <v>0.8981393403788681</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>0</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>5182</v>
+        <v>5902</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0733014107106512</v>
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.3824677272680102</v>
+        <v>0.4355565216160561</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>2</v>
@@ -2501,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>8435</v>
+        <v>7908</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1265470089673423</v>
@@ -2510,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4296086738569831</v>
+        <v>0.4027554346433475</v>
       </c>
     </row>
     <row r="30">
@@ -2533,7 +2533,7 @@
         <v>6084</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.6284262830942534</v>
+        <v>0.6284262830942535</v>
       </c>
       <c r="H30" s="6" t="n">
         <v>0</v>
@@ -2548,16 +2548,16 @@
         <v>10806</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>5905</v>
+        <v>5815</v>
       </c>
       <c r="M30" s="5" t="n">
         <v>13550</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.7974850501938914</v>
+        <v>0.7974850501938915</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4357946501348918</v>
+        <v>0.4291482998780952</v>
       </c>
       <c r="P30" s="6" t="n">
         <v>1</v>
@@ -2569,19 +2569,19 @@
         <v>14629</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>8324</v>
+        <v>9145</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>18170</v>
+        <v>18381</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.7451007481578398</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4239330284504781</v>
+        <v>0.4657758797354054</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.9254485980160889</v>
+        <v>0.9361925190096115</v>
       </c>
     </row>
     <row r="31">
@@ -2604,7 +2604,7 @@
         <v>6084</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.5333074246977078</v>
+        <v>0.5333074246977079</v>
       </c>
       <c r="H31" s="6" t="n">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>6225</v>
+        <v>5528</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.0728113540098803</v>
+        <v>0.07281135400988031</v>
       </c>
       <c r="O31" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4593893153433269</v>
+        <v>0.4079338206978611</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -2640,19 +2640,19 @@
         <v>4231</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>978</v>
+        <v>1010</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>10556</v>
+        <v>10477</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2154999922105184</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.04983162392722082</v>
+        <v>0.05145165903344834</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.5376521511054415</v>
+        <v>0.5335980742562845</v>
       </c>
     </row>
     <row r="32">
@@ -2672,16 +2672,16 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3073</v>
+        <v>6084</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.08340611337539033</v>
+        <v>0.08340611337539035</v>
       </c>
       <c r="H32" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.5051261080927363</v>
+        <v>1</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>8296</v>
+        <v>8538</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2283593700131726</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.6122623907069592</v>
+        <v>0.6301197946673881</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -2711,19 +2711,19 @@
         <v>3602</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>502</v>
+        <v>515</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>10208</v>
+        <v>9428</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1834443661533156</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02557178420679202</v>
+        <v>0.02621017305422179</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.5199227730980341</v>
+        <v>0.4801938215423504</v>
       </c>
     </row>
     <row r="33">
@@ -2791,19 +2791,19 @@
         <v>38147</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>26797</v>
+        <v>25421</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>54318</v>
+        <v>51874</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.2418983141180157</v>
+        <v>0.2418983141180156</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1699238958848513</v>
+        <v>0.1611983645992519</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3444432124454572</v>
+        <v>0.3289413341464634</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>13</v>
@@ -2812,19 +2812,19 @@
         <v>14782</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8668</v>
+        <v>8251</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>23389</v>
+        <v>22826</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2453802642135842</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1438836608211463</v>
+        <v>0.1369702208939258</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3882697003620404</v>
+        <v>0.3789196756283777</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>41</v>
@@ -2833,19 +2833,19 @@
         <v>52929</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>39408</v>
+        <v>39154</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>70597</v>
+        <v>70399</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.242860757009367</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1808227454628347</v>
+        <v>0.1796567783340151</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3239293616490964</v>
+        <v>0.3230199444508657</v>
       </c>
     </row>
     <row r="35">
@@ -2862,19 +2862,19 @@
         <v>103595</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>89986</v>
+        <v>90412</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>115412</v>
+        <v>115796</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.6569190130051757</v>
+        <v>0.6569190130051756</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5706172974168537</v>
+        <v>0.573318806121787</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.7318485290878479</v>
+        <v>0.734283842467808</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>45</v>
@@ -2883,19 +2883,19 @@
         <v>44832</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>38023</v>
+        <v>37866</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>50738</v>
+        <v>50698</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.7442194905468582</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.6311958275687244</v>
+        <v>0.6285920677375059</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.8422702039985438</v>
+        <v>0.8416032342740727</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>134</v>
@@ -2904,19 +2904,19 @@
         <v>148427</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>132893</v>
+        <v>133398</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>162952</v>
+        <v>162641</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.6810496644262002</v>
+        <v>0.6810496644262004</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.6097716412961152</v>
+        <v>0.6120868036465591</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.7476940306482402</v>
+        <v>0.74626679953937</v>
       </c>
     </row>
     <row r="36">
@@ -2933,19 +2933,19 @@
         <v>26880</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17734</v>
+        <v>17981</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>38390</v>
+        <v>40056</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1704538293136653</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1124539459173406</v>
+        <v>0.1140206815148377</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2434394498722789</v>
+        <v>0.2540016032321548</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>8</v>
@@ -2954,19 +2954,19 @@
         <v>7626</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>3676</v>
+        <v>2835</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>15486</v>
+        <v>13667</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.126593900762902</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.06101768248673762</v>
+        <v>0.04705427382710343</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2570664587618159</v>
+        <v>0.2268716294474862</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>29</v>
@@ -2975,19 +2975,19 @@
         <v>34506</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>22889</v>
+        <v>23833</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>47615</v>
+        <v>50162</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.1583305434278099</v>
+        <v>0.15833054342781</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1050232041877659</v>
+        <v>0.1093584297260689</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2184766141527059</v>
+        <v>0.2301647725483647</v>
       </c>
     </row>
     <row r="37">
@@ -3004,19 +3004,19 @@
         <v>85792</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>70182</v>
+        <v>72196</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>99520</v>
+        <v>100344</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.5440240001957457</v>
+        <v>0.5440240001957456</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4450400466510663</v>
+        <v>0.4578060942074592</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.6310777417264813</v>
+        <v>0.6362987241140606</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>27</v>
@@ -3025,19 +3025,19 @@
         <v>22705</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>15468</v>
+        <v>14916</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>30635</v>
+        <v>30788</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.3769042794353283</v>
+        <v>0.3769042794353284</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2567758735213646</v>
+        <v>0.2476176616043559</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5085483843221774</v>
+        <v>0.5110959910299641</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>110</v>
@@ -3046,19 +3046,19 @@
         <v>108497</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>92017</v>
+        <v>93059</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>125290</v>
+        <v>125672</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4978305790277672</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.422213946399888</v>
+        <v>0.4269964501434542</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5748871921215278</v>
+        <v>0.5766367783811884</v>
       </c>
     </row>
     <row r="38">
@@ -3075,19 +3075,19 @@
         <v>3093</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>916</v>
+        <v>928</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>8534</v>
+        <v>8556</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.01961185705414025</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.005810738037960228</v>
+        <v>0.00588477944228096</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.05411292618428951</v>
+        <v>0.05425443313798001</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>4</v>
@@ -3096,19 +3096,19 @@
         <v>5064</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>1493</v>
+        <v>1145</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>12585</v>
+        <v>11711</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.08406181213935146</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.02478770664995662</v>
+        <v>0.01901278766791644</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2089099999068434</v>
+        <v>0.1943994037223258</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>7</v>
@@ -3117,19 +3117,19 @@
         <v>8157</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>3161</v>
+        <v>3719</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>15503</v>
+        <v>16202</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.03742641482124254</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.01450559255534196</v>
+        <v>0.01706538074806715</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.07113355206945536</v>
+        <v>0.07434142587258938</v>
       </c>
     </row>
     <row r="39">
